--- a/benchmarking/All_Clifford_times.xlsx
+++ b/benchmarking/All_Clifford_times.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\stab\benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF54D5C2-23C2-4906-BC0D-3A0266AAF38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE098D1-933E-43AA-9B51-708D73D48680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{81606DF8-4C3E-4049-B730-4AD19B68379E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>stim</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>qiskit (tableau)</t>
+  </si>
+  <si>
+    <t>pysimplex</t>
+  </si>
+  <si>
+    <t>simplex (dense)</t>
+  </si>
+  <si>
+    <t>simplex (sparse)</t>
   </si>
 </sst>
 </file>
@@ -2802,6 +2811,1975 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5715-4AA7-A11B-2B6211D8193A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pysimplex</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.13999629020690901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.167992353439331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.183987140655517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.181001901626586</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.175799369812011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17512083053588801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25478601455688399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22407007217407199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.237296342849731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27164697647094699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.311993598937988</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.299108266830444</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31891179084777799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30425071716308499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29217839241027799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38039970397949202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34991574287414501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39286327362060502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.40168666839599598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41076636314392001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.41381645202636702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.52246522903442305</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50731897354125899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.480098485946655</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.53926372528076105</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56255650520324696</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67710399627685502</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67627286911010698</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.679828882217407</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.67709398269653298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.68467903137206998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83870291709899902</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.73469519615173295</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.77960395812988204</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.82643055915832497</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.84452605247497503</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0804193019866899</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.86258816719055098</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.94168496131896895</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95546722412109297</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.03329873085021</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0436551570892301</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0545613765716499</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0611667633056601</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1774327754974301</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.3535075187683101</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.30151844024658</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.3079583644866899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.3255097866058301</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2989747524261399</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.51168608665466</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.4183120727539</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3803679943084699</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5067880153655999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5204727649688701</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.6620078086853001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.64571928977966</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7671926021575901</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.66809725761413</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.96240139007568</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.2401134967803902</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.5587344169616699</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.7806859016418399</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.96931672096252</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9316270351409901</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.1376862525939901</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.3175196647643999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.0871872901916499</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.0685865879058798</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.2535338401794398</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.6838145256042401</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.6467926502227699</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.7796328067779501</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.8335928916931099</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4941985607147199</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.7007572650909402</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.7155237197875901</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.33656907081604</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.9337811470031698</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.3915600776672301</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.1039552688598602</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.2107748985290501</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.1639475822448699</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3195044994354199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.50831127166748</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.3053214550018302</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.5001366138458199</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.9645915031433101</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.5861825942993102</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9984462261199898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.91868901252746</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.54660868644714</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.9517366886138898</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.4172394275665203</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.3124976158142001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.0925364494323704</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.5774235725402797</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.1635191440582204</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.4455804824829102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BE8-4817-954C-2B7EBC5EA855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simplex (dense)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.247365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17713899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.207237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.435886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42102400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31863399999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39400499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39808199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47827700000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.294294</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28777200000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30576100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33799299999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33819199999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37076799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43768499999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.43069499999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41424</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51610500000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49197200000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47887800000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57081400000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57610799999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56129600000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67399299999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65839899999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67257</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77334999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.78770700000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77439499999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92549300000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89206399999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.87706399999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0482</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.01217</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1877200000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1477999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1740200000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3118000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.28877</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3064199999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4532099999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4713499999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4763500000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7019500000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6646300000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.65368</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8778999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8526199999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.87165</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1161500000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0486599999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0889199999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.4148100000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.3959600000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.38415</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.9725199999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.76118</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.0792999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.2551600000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.3853499999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.2342399999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.0277799999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.9433699999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.0247000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.7397400000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.1738499999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.5981899999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.49099</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.6318799999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.4560899999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.1677499999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.1923500000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.15489</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.80924</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.7724399999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.3660699999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8121200000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.5325100000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.5592199999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.4398</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.7988599999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.4114299999999993</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.5421499999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.6484500000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.6252999999999993</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10.5268</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10.4255</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11.078799999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11.2499</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11.3894</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11.937900000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>12.876200000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>12.225</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>12.734400000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14.4825</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14.202999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>14.3688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5231-4609-917D-175E12F6AAEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simplex (sparse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.26867999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27171800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28848600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43753199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.348271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38169500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53432500000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45366800000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29712</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35698299999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37874400000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38294099999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44854699999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43823400000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44043399999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.441859</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.390399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41930099999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47729899999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49479699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47726099999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.56658600000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55901100000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56591400000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.64741300000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65484699999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70369199999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77382200000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.74586300000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.88206799999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90947299999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.88812899999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0033099999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0185900000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0108999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.19156</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1353800000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.20784</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2930200000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3193299999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.321</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4495</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4443299999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4480200000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6725099999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6834199999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6396900000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.79528</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.88443</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0455000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0525000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.1256400000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.1140699999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.5421100000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.3784399999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.3521999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.93486</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.91493</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.9441799999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.2045300000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.5683699999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.21245</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.7763399999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.9287100000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.8175300000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.5350799999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.4805599999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.5418700000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.6154299999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.4960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.3401800000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.3763899999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.2098300000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.5113300000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.0476799999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.0777700000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.0906700000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.7972000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.7538799999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.7496900000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.5122199999999992</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.7158599999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.5778400000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.5427900000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.4344800000000006</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.3721300000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10.287100000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11.616899999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10.5724</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11.155900000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11.7483</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11.9696</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13.208600000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13.0077</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13.1433</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14.5259</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14.950200000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>14.064399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5231-4609-917D-175E12F6AAEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3690,16 +5668,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>179917</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>164314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>391584</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>395066</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>189577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4024,15 +6002,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E8E955-F650-40C0-9EC3-1D439C5A3C44}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4048,8 +6026,17 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -4065,8 +6052,17 @@
       <c r="E2">
         <v>0.50158905982971103</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0.13999629020690901</v>
+      </c>
+      <c r="G2">
+        <v>0.247365</v>
+      </c>
+      <c r="H2">
+        <v>0.26867999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
@@ -4082,8 +6078,17 @@
       <c r="E3">
         <v>0.37910008430480902</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0.167992353439331</v>
+      </c>
+      <c r="G3">
+        <v>0.17713899999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.27171800000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
@@ -4099,8 +6104,17 @@
       <c r="E4">
         <v>0.36271238327026301</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0.183987140655517</v>
+      </c>
+      <c r="G4">
+        <v>0.207237</v>
+      </c>
+      <c r="H4">
+        <v>0.28848600000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>225</v>
       </c>
@@ -4116,8 +6130,17 @@
       <c r="E5">
         <v>0.36342883110046298</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0.181001901626586</v>
+      </c>
+      <c r="G5">
+        <v>0.435886</v>
+      </c>
+      <c r="H5">
+        <v>0.43753199999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>225</v>
       </c>
@@ -4133,8 +6156,17 @@
       <c r="E6">
         <v>0.51639938354492099</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0.175799369812011</v>
+      </c>
+      <c r="G6">
+        <v>0.42102400000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.348271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>225</v>
       </c>
@@ -4150,8 +6182,17 @@
       <c r="E7">
         <v>0.47044706344604398</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0.17512083053588801</v>
+      </c>
+      <c r="G7">
+        <v>0.31863399999999997</v>
+      </c>
+      <c r="H7">
+        <v>0.38169500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>250</v>
       </c>
@@ -4167,8 +6208,17 @@
       <c r="E8">
         <v>0.46488308906555098</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0.25478601455688399</v>
+      </c>
+      <c r="G8">
+        <v>0.39400499999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.53432500000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>250</v>
       </c>
@@ -4184,8 +6234,17 @@
       <c r="E9">
         <v>0.51353669166564897</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0.22407007217407199</v>
+      </c>
+      <c r="G9">
+        <v>0.39808199999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.45366800000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>250</v>
       </c>
@@ -4201,8 +6260,17 @@
       <c r="E10">
         <v>0.45555567741393999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0.237296342849731</v>
+      </c>
+      <c r="G10">
+        <v>0.47827700000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.29712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>275</v>
       </c>
@@ -4218,8 +6286,17 @@
       <c r="E11">
         <v>0.57671117782592696</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0.27164697647094699</v>
+      </c>
+      <c r="G11">
+        <v>0.294294</v>
+      </c>
+      <c r="H11">
+        <v>0.35698299999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>275</v>
       </c>
@@ -4235,8 +6312,17 @@
       <c r="E12">
         <v>0.78106999397277799</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0.311993598937988</v>
+      </c>
+      <c r="G12">
+        <v>0.28777200000000003</v>
+      </c>
+      <c r="H12">
+        <v>0.37874400000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>275</v>
       </c>
@@ -4252,8 +6338,17 @@
       <c r="E13">
         <v>0.78633379936218195</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0.299108266830444</v>
+      </c>
+      <c r="G13">
+        <v>0.30576100000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.38294099999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>300</v>
       </c>
@@ -4269,8 +6364,17 @@
       <c r="E14">
         <v>0.80075430870056097</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0.31891179084777799</v>
+      </c>
+      <c r="G14">
+        <v>0.33799299999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.44854699999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>300</v>
       </c>
@@ -4286,8 +6390,17 @@
       <c r="E15">
         <v>0.59744429588317804</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0.30425071716308499</v>
+      </c>
+      <c r="G15">
+        <v>0.33819199999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.43823400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>300</v>
       </c>
@@ -4303,8 +6416,17 @@
       <c r="E16">
         <v>0.81742429733276301</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0.29217839241027799</v>
+      </c>
+      <c r="G16">
+        <v>0.37076799999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.44043399999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>325</v>
       </c>
@@ -4320,8 +6442,17 @@
       <c r="E17">
         <v>0.8532075881958</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0.38039970397949202</v>
+      </c>
+      <c r="G17">
+        <v>0.43768499999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.441859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>325</v>
       </c>
@@ -4337,8 +6468,17 @@
       <c r="E18">
         <v>1.0844080448150599</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0.34991574287414501</v>
+      </c>
+      <c r="G18">
+        <v>0.43069499999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.390399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>325</v>
       </c>
@@ -4354,8 +6494,17 @@
       <c r="E19">
         <v>0.71900916099548295</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0.39286327362060502</v>
+      </c>
+      <c r="G19">
+        <v>0.41424</v>
+      </c>
+      <c r="H19">
+        <v>0.41930099999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>350</v>
       </c>
@@ -4371,8 +6520,17 @@
       <c r="E20">
         <v>1.0846805572509699</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0.40168666839599598</v>
+      </c>
+      <c r="G20">
+        <v>0.51610500000000004</v>
+      </c>
+      <c r="H20">
+        <v>0.47729899999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>350</v>
       </c>
@@ -4388,8 +6546,17 @@
       <c r="E21">
         <v>0.81953239440917902</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>0.41076636314392001</v>
+      </c>
+      <c r="G21">
+        <v>0.49197200000000002</v>
+      </c>
+      <c r="H21">
+        <v>0.49479699999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>350</v>
       </c>
@@ -4405,8 +6572,17 @@
       <c r="E22">
         <v>0.972478628158569</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>0.41381645202636702</v>
+      </c>
+      <c r="G22">
+        <v>0.47887800000000003</v>
+      </c>
+      <c r="H22">
+        <v>0.47726099999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>375</v>
       </c>
@@ -4422,8 +6598,17 @@
       <c r="E23">
         <v>0.93167042732238703</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>0.52246522903442305</v>
+      </c>
+      <c r="G23">
+        <v>0.57081400000000004</v>
+      </c>
+      <c r="H23">
+        <v>0.56658600000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>375</v>
       </c>
@@ -4439,8 +6624,17 @@
       <c r="E24">
         <v>1.4264566898345901</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>0.50731897354125899</v>
+      </c>
+      <c r="G24">
+        <v>0.57610799999999995</v>
+      </c>
+      <c r="H24">
+        <v>0.55901100000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>375</v>
       </c>
@@ -4456,8 +6650,17 @@
       <c r="E25">
         <v>1.00001692771911</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>0.480098485946655</v>
+      </c>
+      <c r="G25">
+        <v>0.56129600000000002</v>
+      </c>
+      <c r="H25">
+        <v>0.56591400000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>400</v>
       </c>
@@ -4473,8 +6676,17 @@
       <c r="E26">
         <v>1.31499242782592</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>0.53926372528076105</v>
+      </c>
+      <c r="G26">
+        <v>0.67399299999999995</v>
+      </c>
+      <c r="H26">
+        <v>0.64741300000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>400</v>
       </c>
@@ -4490,8 +6702,17 @@
       <c r="E27">
         <v>1.37475705146789</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>0.56255650520324696</v>
+      </c>
+      <c r="G27">
+        <v>0.65839899999999996</v>
+      </c>
+      <c r="H27">
+        <v>0.65484699999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>400</v>
       </c>
@@ -4507,8 +6728,17 @@
       <c r="E28">
         <v>1.0519273281097401</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0.67710399627685502</v>
+      </c>
+      <c r="G28">
+        <v>0.67257</v>
+      </c>
+      <c r="H28">
+        <v>0.70369199999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>425</v>
       </c>
@@ -4524,8 +6754,17 @@
       <c r="E29">
         <v>1.5292379856109599</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0.67627286911010698</v>
+      </c>
+      <c r="G29">
+        <v>0.77334999999999998</v>
+      </c>
+      <c r="H29">
+        <v>0.77382200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>425</v>
       </c>
@@ -4541,8 +6780,17 @@
       <c r="E30">
         <v>1.49594449996948</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>0.679828882217407</v>
+      </c>
+      <c r="G30">
+        <v>0.78770700000000005</v>
+      </c>
+      <c r="H30">
+        <v>0.74586300000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>425</v>
       </c>
@@ -4558,8 +6806,17 @@
       <c r="E31">
         <v>1.26280164718627</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>0.67709398269653298</v>
+      </c>
+      <c r="G31">
+        <v>0.77439499999999994</v>
+      </c>
+      <c r="H31">
+        <v>0.76390000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>450</v>
       </c>
@@ -4575,8 +6832,17 @@
       <c r="E32">
         <v>1.34573125839233</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0.68467903137206998</v>
+      </c>
+      <c r="G32">
+        <v>0.92549300000000001</v>
+      </c>
+      <c r="H32">
+        <v>0.88206799999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>450</v>
       </c>
@@ -4592,8 +6858,17 @@
       <c r="E33">
         <v>1.8555114269256501</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0.83870291709899902</v>
+      </c>
+      <c r="G33">
+        <v>0.89206399999999997</v>
+      </c>
+      <c r="H33">
+        <v>0.90947299999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>450</v>
       </c>
@@ -4609,8 +6884,17 @@
       <c r="E34">
         <v>1.6865248680114699</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>0.73469519615173295</v>
+      </c>
+      <c r="G34">
+        <v>0.87706399999999995</v>
+      </c>
+      <c r="H34">
+        <v>0.88812899999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>475</v>
       </c>
@@ -4626,8 +6910,17 @@
       <c r="E35">
         <v>1.8541276454925499</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0.77960395812988204</v>
+      </c>
+      <c r="G35">
+        <v>1.0482</v>
+      </c>
+      <c r="H35">
+        <v>1.0033099999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>475</v>
       </c>
@@ -4643,8 +6936,17 @@
       <c r="E36">
         <v>1.7825338840484599</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0.82643055915832497</v>
+      </c>
+      <c r="G36">
+        <v>1.0164</v>
+      </c>
+      <c r="H36">
+        <v>1.0185900000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>475</v>
       </c>
@@ -4660,8 +6962,17 @@
       <c r="E37">
         <v>1.91481614112854</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>0.84452605247497503</v>
+      </c>
+      <c r="G37">
+        <v>1.01217</v>
+      </c>
+      <c r="H37">
+        <v>1.0108999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>500</v>
       </c>
@@ -4677,8 +6988,17 @@
       <c r="E38">
         <v>2.0616714954376198</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>1.0804193019866899</v>
+      </c>
+      <c r="G38">
+        <v>1.1877200000000001</v>
+      </c>
+      <c r="H38">
+        <v>1.19156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>500</v>
       </c>
@@ -4694,8 +7014,17 @@
       <c r="E39">
         <v>2.0358221530914302</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0.86258816719055098</v>
+      </c>
+      <c r="G39">
+        <v>1.1477999999999999</v>
+      </c>
+      <c r="H39">
+        <v>1.1353800000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>500</v>
       </c>
@@ -4711,8 +7040,17 @@
       <c r="E40">
         <v>2.0561540126800502</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0.94168496131896895</v>
+      </c>
+      <c r="G40">
+        <v>1.1740200000000001</v>
+      </c>
+      <c r="H40">
+        <v>1.20784</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>525</v>
       </c>
@@ -4728,8 +7066,17 @@
       <c r="E41">
         <v>2.20681405067443</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>0.95546722412109297</v>
+      </c>
+      <c r="G41">
+        <v>1.3118000000000001</v>
+      </c>
+      <c r="H41">
+        <v>1.2930200000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>525</v>
       </c>
@@ -4745,8 +7092,17 @@
       <c r="E42">
         <v>1.8590898513793901</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>1.03329873085021</v>
+      </c>
+      <c r="G42">
+        <v>1.28877</v>
+      </c>
+      <c r="H42">
+        <v>1.3193299999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>525</v>
       </c>
@@ -4762,8 +7118,17 @@
       <c r="E43">
         <v>1.86380887031555</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>1.0436551570892301</v>
+      </c>
+      <c r="G43">
+        <v>1.3064199999999999</v>
+      </c>
+      <c r="H43">
+        <v>1.321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>550</v>
       </c>
@@ -4779,8 +7144,17 @@
       <c r="E44">
         <v>2.0214974880218501</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>1.0545613765716499</v>
+      </c>
+      <c r="G44">
+        <v>1.4532099999999999</v>
+      </c>
+      <c r="H44">
+        <v>1.4495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>550</v>
       </c>
@@ -4796,8 +7170,17 @@
       <c r="E45">
         <v>2.5703284740447998</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>1.0611667633056601</v>
+      </c>
+      <c r="G45">
+        <v>1.4713499999999999</v>
+      </c>
+      <c r="H45">
+        <v>1.4443299999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>550</v>
       </c>
@@ -4813,8 +7196,17 @@
       <c r="E46">
         <v>2.8023321628570499</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>1.1774327754974301</v>
+      </c>
+      <c r="G46">
+        <v>1.4763500000000001</v>
+      </c>
+      <c r="H46">
+        <v>1.4480200000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>575</v>
       </c>
@@ -4830,8 +7222,17 @@
       <c r="E47">
         <v>4.8986465930938703</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>1.3535075187683101</v>
+      </c>
+      <c r="G47">
+        <v>1.7019500000000001</v>
+      </c>
+      <c r="H47">
+        <v>1.6725099999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>575</v>
       </c>
@@ -4847,8 +7248,17 @@
       <c r="E48">
         <v>4.3504037857055602</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>1.30151844024658</v>
+      </c>
+      <c r="G48">
+        <v>1.6646300000000001</v>
+      </c>
+      <c r="H48">
+        <v>1.6834199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>575</v>
       </c>
@@ -4864,8 +7274,17 @@
       <c r="E49">
         <v>3.2619552612304599</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>1.3079583644866899</v>
+      </c>
+      <c r="G49">
+        <v>1.65368</v>
+      </c>
+      <c r="H49">
+        <v>1.6396900000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>600</v>
       </c>
@@ -4881,8 +7300,17 @@
       <c r="E50">
         <v>2.3058264255523602</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>1.3255097866058301</v>
+      </c>
+      <c r="G50">
+        <v>1.8778999999999999</v>
+      </c>
+      <c r="H50">
+        <v>1.79528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>600</v>
       </c>
@@ -4898,8 +7326,17 @@
       <c r="E51">
         <v>3.2576150894164999</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>1.2989747524261399</v>
+      </c>
+      <c r="G51">
+        <v>1.8526199999999999</v>
+      </c>
+      <c r="H51">
+        <v>1.88443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>600</v>
       </c>
@@ -4915,8 +7352,17 @@
       <c r="E52">
         <v>2.35433673858642</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>1.51168608665466</v>
+      </c>
+      <c r="G52">
+        <v>1.87165</v>
+      </c>
+      <c r="H52">
+        <v>2.0455000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>625</v>
       </c>
@@ -4932,8 +7378,17 @@
       <c r="E53">
         <v>3.0055782794952299</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>1.4183120727539</v>
+      </c>
+      <c r="G53">
+        <v>2.1161500000000002</v>
+      </c>
+      <c r="H53">
+        <v>2.0525000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>625</v>
       </c>
@@ -4949,8 +7404,17 @@
       <c r="E54">
         <v>2.9856376647949201</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>1.3803679943084699</v>
+      </c>
+      <c r="G54">
+        <v>2.0486599999999999</v>
+      </c>
+      <c r="H54">
+        <v>2.1256400000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>625</v>
       </c>
@@ -4966,8 +7430,17 @@
       <c r="E55">
         <v>2.51862573623657</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>1.5067880153655999</v>
+      </c>
+      <c r="G55">
+        <v>2.0889199999999999</v>
+      </c>
+      <c r="H55">
+        <v>2.1140699999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>650</v>
       </c>
@@ -4983,8 +7456,17 @@
       <c r="E56">
         <v>3.23799705505371</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>1.5204727649688701</v>
+      </c>
+      <c r="G56">
+        <v>2.4148100000000001</v>
+      </c>
+      <c r="H56">
+        <v>2.5421100000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>650</v>
       </c>
@@ -5000,8 +7482,17 @@
       <c r="E57">
         <v>2.74698686599731</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>1.6620078086853001</v>
+      </c>
+      <c r="G57">
+        <v>2.3959600000000001</v>
+      </c>
+      <c r="H57">
+        <v>2.3784399999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>650</v>
       </c>
@@ -5017,8 +7508,17 @@
       <c r="E58">
         <v>2.78949975967407</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>1.64571928977966</v>
+      </c>
+      <c r="G58">
+        <v>2.38415</v>
+      </c>
+      <c r="H58">
+        <v>2.3521999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>675</v>
       </c>
@@ -5034,8 +7534,17 @@
       <c r="E59">
         <v>2.9380455017089799</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>1.7671926021575901</v>
+      </c>
+      <c r="G59">
+        <v>2.9725199999999998</v>
+      </c>
+      <c r="H59">
+        <v>2.93486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>675</v>
       </c>
@@ -5051,8 +7560,17 @@
       <c r="E60">
         <v>3.7891550064086901</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>1.66809725761413</v>
+      </c>
+      <c r="G60">
+        <v>2.76118</v>
+      </c>
+      <c r="H60">
+        <v>2.91493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>675</v>
       </c>
@@ -5068,8 +7586,17 @@
       <c r="E61">
         <v>4.2388992309570304</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>1.96240139007568</v>
+      </c>
+      <c r="G61">
+        <v>3.0792999999999999</v>
+      </c>
+      <c r="H61">
+        <v>2.9441799999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>700</v>
       </c>
@@ -5085,8 +7612,17 @@
       <c r="E62">
         <v>3.31702303886413</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>2.2401134967803902</v>
+      </c>
+      <c r="G62">
+        <v>3.2551600000000001</v>
+      </c>
+      <c r="H62">
+        <v>3.2045300000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>700</v>
       </c>
@@ -5102,8 +7638,17 @@
       <c r="E63">
         <v>3.3279170989990199</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>2.5587344169616699</v>
+      </c>
+      <c r="G63">
+        <v>3.3853499999999999</v>
+      </c>
+      <c r="H63">
+        <v>3.5683699999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>700</v>
       </c>
@@ -5119,8 +7664,17 @@
       <c r="E64">
         <v>4.3651044368743896</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>1.7806859016418399</v>
+      </c>
+      <c r="G64">
+        <v>3.2342399999999998</v>
+      </c>
+      <c r="H64">
+        <v>3.21245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>725</v>
       </c>
@@ -5136,8 +7690,17 @@
       <c r="E65">
         <v>4.0567312240600497</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>1.96931672096252</v>
+      </c>
+      <c r="G65">
+        <v>4.0277799999999999</v>
+      </c>
+      <c r="H65">
+        <v>3.7763399999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>725</v>
       </c>
@@ -5153,8 +7716,17 @@
       <c r="E66">
         <v>3.94991850852966</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>1.9316270351409901</v>
+      </c>
+      <c r="G66">
+        <v>3.9433699999999998</v>
+      </c>
+      <c r="H66">
+        <v>3.9287100000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>725</v>
       </c>
@@ -5170,8 +7742,17 @@
       <c r="E67">
         <v>4.5346112251281703</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>2.1376862525939901</v>
+      </c>
+      <c r="G67">
+        <v>4.0247000000000002</v>
+      </c>
+      <c r="H67">
+        <v>3.8175300000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>750</v>
       </c>
@@ -5187,8 +7768,17 @@
       <c r="E68">
         <v>4.9584410190582204</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>2.3175196647643999</v>
+      </c>
+      <c r="G68">
+        <v>4.7397400000000003</v>
+      </c>
+      <c r="H68">
+        <v>4.5350799999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>750</v>
       </c>
@@ -5204,8 +7794,17 @@
       <c r="E69">
         <v>3.7347445487975999</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>2.0871872901916499</v>
+      </c>
+      <c r="G69">
+        <v>5.1738499999999998</v>
+      </c>
+      <c r="H69">
+        <v>4.4805599999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>750</v>
       </c>
@@ -5221,8 +7820,17 @@
       <c r="E70">
         <v>3.8274784088134699</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>2.0685865879058798</v>
+      </c>
+      <c r="G70">
+        <v>4.5981899999999998</v>
+      </c>
+      <c r="H70">
+        <v>4.5418700000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>775</v>
       </c>
@@ -5238,8 +7846,17 @@
       <c r="E71">
         <v>4.7500531673431396</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>2.2535338401794398</v>
+      </c>
+      <c r="G71">
+        <v>5.49099</v>
+      </c>
+      <c r="H71">
+        <v>5.6154299999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>775</v>
       </c>
@@ -5255,8 +7872,17 @@
       <c r="E72">
         <v>4.8746092319488499</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>2.6838145256042401</v>
+      </c>
+      <c r="G72">
+        <v>5.6318799999999998</v>
+      </c>
+      <c r="H72">
+        <v>5.4960000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>775</v>
       </c>
@@ -5272,8 +7898,17 @@
       <c r="E73">
         <v>4.61451888084411</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>2.6467926502227699</v>
+      </c>
+      <c r="G73">
+        <v>5.4560899999999997</v>
+      </c>
+      <c r="H73">
+        <v>5.3401800000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>800</v>
       </c>
@@ -5289,8 +7924,17 @@
       <c r="E74">
         <v>4.7151546478271396</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>2.7796328067779501</v>
+      </c>
+      <c r="G74">
+        <v>6.1677499999999998</v>
+      </c>
+      <c r="H74">
+        <v>6.3763899999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>800</v>
       </c>
@@ -5306,8 +7950,17 @@
       <c r="E75">
         <v>4.9660561084747297</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>2.8335928916931099</v>
+      </c>
+      <c r="G75">
+        <v>6.1923500000000002</v>
+      </c>
+      <c r="H75">
+        <v>6.2098300000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>800</v>
       </c>
@@ -5323,8 +7976,17 @@
       <c r="E76">
         <v>4.1455562114715496</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>2.4941985607147199</v>
+      </c>
+      <c r="G76">
+        <v>6.15489</v>
+      </c>
+      <c r="H76">
+        <v>6.5113300000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>825</v>
       </c>
@@ -5340,8 +8002,17 @@
       <c r="E77">
         <v>4.3623244762420601</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>2.7007572650909402</v>
+      </c>
+      <c r="G77">
+        <v>6.80924</v>
+      </c>
+      <c r="H77">
+        <v>7.0476799999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>825</v>
       </c>
@@ -5357,8 +8028,17 @@
       <c r="E78">
         <v>4.3746628761291504</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>2.7155237197875901</v>
+      </c>
+      <c r="G78">
+        <v>6.7724399999999996</v>
+      </c>
+      <c r="H78">
+        <v>7.0777700000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>825</v>
       </c>
@@ -5374,8 +8054,17 @@
       <c r="E79">
         <v>4.4427912235260001</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>3.33656907081604</v>
+      </c>
+      <c r="G79">
+        <v>7.3660699999999997</v>
+      </c>
+      <c r="H79">
+        <v>7.0906700000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>850</v>
       </c>
@@ -5391,8 +8080,17 @@
       <c r="E80">
         <v>4.6806111335754297</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>2.9337811470031698</v>
+      </c>
+      <c r="G80">
+        <v>7.8121200000000002</v>
+      </c>
+      <c r="H80">
+        <v>7.7972000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>850</v>
       </c>
@@ -5408,8 +8106,17 @@
       <c r="E81">
         <v>4.6339192390441797</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>3.3915600776672301</v>
+      </c>
+      <c r="G81">
+        <v>7.5325100000000003</v>
+      </c>
+      <c r="H81">
+        <v>7.7538799999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>850</v>
       </c>
@@ -5425,8 +8132,17 @@
       <c r="E82">
         <v>4.7107682228088299</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>3.1039552688598602</v>
+      </c>
+      <c r="G82">
+        <v>7.5592199999999998</v>
+      </c>
+      <c r="H82">
+        <v>7.7496900000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>875</v>
       </c>
@@ -5442,8 +8158,17 @@
       <c r="E83">
         <v>4.94333720207214</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>3.2107748985290501</v>
+      </c>
+      <c r="G83">
+        <v>8.4398</v>
+      </c>
+      <c r="H83">
+        <v>8.5122199999999992</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>875</v>
       </c>
@@ -5459,8 +8184,17 @@
       <c r="E84">
         <v>5.8944339752197203</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>3.1639475822448699</v>
+      </c>
+      <c r="G84">
+        <v>8.7988599999999995</v>
+      </c>
+      <c r="H84">
+        <v>8.7158599999999993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>875</v>
       </c>
@@ -5476,8 +8210,17 @@
       <c r="E85">
         <v>5.9875590801238996</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>3.3195044994354199</v>
+      </c>
+      <c r="G85">
+        <v>8.4114299999999993</v>
+      </c>
+      <c r="H85">
+        <v>8.5778400000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>900</v>
       </c>
@@ -5493,8 +8236,17 @@
       <c r="E86">
         <v>6.3212220668792698</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>3.50831127166748</v>
+      </c>
+      <c r="G86">
+        <v>9.5421499999999995</v>
+      </c>
+      <c r="H86">
+        <v>9.5427900000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>900</v>
       </c>
@@ -5510,8 +8262,17 @@
       <c r="E87">
         <v>5.2178108692169101</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>3.3053214550018302</v>
+      </c>
+      <c r="G87">
+        <v>9.6484500000000004</v>
+      </c>
+      <c r="H87">
+        <v>9.4344800000000006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>900</v>
       </c>
@@ -5527,8 +8288,17 @@
       <c r="E88">
         <v>5.5034387111663801</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>3.5001366138458199</v>
+      </c>
+      <c r="G88">
+        <v>9.6252999999999993</v>
+      </c>
+      <c r="H88">
+        <v>9.3721300000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>925</v>
       </c>
@@ -5544,8 +8314,17 @@
       <c r="E89">
         <v>7.0825126171111998</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>3.9645915031433101</v>
+      </c>
+      <c r="G89">
+        <v>10.5268</v>
+      </c>
+      <c r="H89">
+        <v>10.287100000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>925</v>
       </c>
@@ -5561,8 +8340,17 @@
       <c r="E90">
         <v>8.1571176052093506</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>3.5861825942993102</v>
+      </c>
+      <c r="G90">
+        <v>10.4255</v>
+      </c>
+      <c r="H90">
+        <v>11.616899999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>925</v>
       </c>
@@ -5578,8 +8366,17 @@
       <c r="E91">
         <v>8.60499668121337</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>3.9984462261199898</v>
+      </c>
+      <c r="G91">
+        <v>11.078799999999999</v>
+      </c>
+      <c r="H91">
+        <v>10.5724</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>950</v>
       </c>
@@ -5595,8 +8392,17 @@
       <c r="E92">
         <v>6.8403797149658203</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>3.91868901252746</v>
+      </c>
+      <c r="G92">
+        <v>11.2499</v>
+      </c>
+      <c r="H92">
+        <v>11.155900000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>950</v>
       </c>
@@ -5612,8 +8418,17 @@
       <c r="E93">
         <v>7.0399651527404696</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>4.54660868644714</v>
+      </c>
+      <c r="G93">
+        <v>11.3894</v>
+      </c>
+      <c r="H93">
+        <v>11.7483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>950</v>
       </c>
@@ -5629,8 +8444,17 @@
       <c r="E94">
         <v>5.9269864559173504</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>3.9517366886138898</v>
+      </c>
+      <c r="G94">
+        <v>11.937900000000001</v>
+      </c>
+      <c r="H94">
+        <v>11.9696</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>975</v>
       </c>
@@ -5646,8 +8470,17 @@
       <c r="E95">
         <v>6.4419662952423096</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>4.4172394275665203</v>
+      </c>
+      <c r="G95">
+        <v>12.876200000000001</v>
+      </c>
+      <c r="H95">
+        <v>13.208600000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>975</v>
       </c>
@@ -5663,8 +8496,17 @@
       <c r="E96">
         <v>8.2282593250274605</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>4.3124976158142001</v>
+      </c>
+      <c r="G96">
+        <v>12.225</v>
+      </c>
+      <c r="H96">
+        <v>13.0077</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>975</v>
       </c>
@@ -5680,8 +8522,17 @@
       <c r="E97">
         <v>7.82778000831604</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>5.0925364494323704</v>
+      </c>
+      <c r="G97">
+        <v>12.734400000000001</v>
+      </c>
+      <c r="H97">
+        <v>13.1433</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1000</v>
       </c>
@@ -5697,8 +8548,17 @@
       <c r="E98">
         <v>7.5158245563507</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>4.5774235725402797</v>
+      </c>
+      <c r="G98">
+        <v>14.4825</v>
+      </c>
+      <c r="H98">
+        <v>14.5259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1000</v>
       </c>
@@ -5714,8 +8574,17 @@
       <c r="E99">
         <v>6.5280742645263601</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>5.1635191440582204</v>
+      </c>
+      <c r="G99">
+        <v>14.202999999999999</v>
+      </c>
+      <c r="H99">
+        <v>14.950200000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1000</v>
       </c>
@@ -5730,6 +8599,15 @@
       </c>
       <c r="E100">
         <v>7.1778047084808296</v>
+      </c>
+      <c r="F100">
+        <v>4.4455804824829102</v>
+      </c>
+      <c r="G100">
+        <v>14.3688</v>
+      </c>
+      <c r="H100">
+        <v>14.064399999999999</v>
       </c>
     </row>
   </sheetData>
